--- a/PastaDocumentosRequisitos/Aula4 Parducci.xlsx
+++ b/PastaDocumentosRequisitos/Aula4 Parducci.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C40AFC-7A46-453A-8D80-3513B0AAB3FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E42761-56AC-4011-B587-8C22B0E969DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{3E883075-3C50-427E-9EFF-34DD8719B7E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Resgatar pontos em novas compras</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Cada cliente só vizualiza os seus pontos</t>
+  </si>
+  <si>
+    <t>banana</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B082E-284E-47EC-A707-CA48AFAB8FE9}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,6 +612,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
